--- a/documentation/Spatial configuration table.xlsx
+++ b/documentation/Spatial configuration table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/serenst_tudelft_nl/Documents/spatial computing architecture/CDS-Project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{697A1238-A541-4A1D-8A1B-4D07BCAF2535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7251A077-0718-4526-9978-45032BBD417D}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{697A1238-A541-4A1D-8A1B-4D07BCAF2535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A34D822-9F98-46FD-9C56-89E978C0B272}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1395CAA-C2E5-497D-87AD-FD08627C7CC7}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>12. Gym</t>
   </si>
   <si>
-    <t>13. Outside</t>
-  </si>
-  <si>
     <t>14. Public parking</t>
   </si>
   <si>
@@ -116,42 +113,15 @@
     <t>"2,3,4,5,6"</t>
   </si>
   <si>
-    <t>"1,7"</t>
-  </si>
-  <si>
     <t>"1,13"</t>
   </si>
   <si>
     <t>"1"</t>
   </si>
   <si>
-    <t>"1,9"</t>
-  </si>
-  <si>
     <t>"2,3"</t>
   </si>
   <si>
-    <t>"11,13,14"</t>
-  </si>
-  <si>
-    <t>"6,13,14"</t>
-  </si>
-  <si>
-    <t>"13"</t>
-  </si>
-  <si>
-    <t>"8,13"</t>
-  </si>
-  <si>
-    <t>"13,14"</t>
-  </si>
-  <si>
-    <t>"4,8,9,10,11,12"</t>
-  </si>
-  <si>
-    <t>"8,9,12"</t>
-  </si>
-  <si>
     <t>Housing_entree</t>
   </si>
   <si>
@@ -191,7 +161,37 @@
     <t>Gym</t>
   </si>
   <si>
-    <t>Outside</t>
+    <t>"11,14"</t>
+  </si>
+  <si>
+    <t>"8"</t>
+  </si>
+  <si>
+    <t>"6,14"</t>
+  </si>
+  <si>
+    <t>"14"</t>
+  </si>
+  <si>
+    <t>13. Atrium</t>
+  </si>
+  <si>
+    <t>"1,7,13"</t>
+  </si>
+  <si>
+    <t>"1,9,13"</t>
+  </si>
+  <si>
+    <t>"2,3,5,6"</t>
+  </si>
+  <si>
+    <t>"8,9,10,12"</t>
+  </si>
+  <si>
+    <t>Atrium</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -207,18 +207,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -238,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -556,7 +550,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,13 +613,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>450</v>
@@ -634,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -654,13 +648,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <v>12500</v>
@@ -669,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -689,13 +683,13 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>10000</v>
@@ -704,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -724,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I5">
         <v>16000</v>
@@ -739,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -759,13 +753,13 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>6500</v>
@@ -774,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -794,13 +788,13 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I7">
         <v>6500</v>
@@ -809,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -829,13 +823,13 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -844,7 +838,7 @@
         <v>0.7</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -864,13 +858,13 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I9">
         <v>800</v>
@@ -879,7 +873,7 @@
         <v>0.9</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -899,13 +893,13 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>1000</v>
@@ -914,7 +908,7 @@
         <v>0.8</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -934,13 +928,13 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>200</v>
@@ -949,7 +943,7 @@
         <v>0.7</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -969,13 +963,13 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I12">
         <v>200</v>
@@ -984,7 +978,7 @@
         <v>0.9</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1004,13 +998,13 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I13">
         <v>950</v>
@@ -1019,12 +1013,12 @@
         <v>0.8</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -1039,21 +1033,27 @@
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.9</v>
+      </c>
       <c r="K14" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1083,96 +1083,96 @@
         <v>0.9</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
-        <f>CONCATENATE(B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2)</f>
+        <f t="shared" ref="B20:B33" si="0">CONCATENATE(B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2)</f>
         <v>0,0,0,1,"2,3,4,5,6",1,Housing_entree,450,1,Housing_entree</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
-        <f>CONCATENATE(B3,",",C3,",",D3,",",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3)</f>
-        <v>0,0,0,2,"1,7",1,Starter_houses,12500,1,Starter_houses</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,2,"1,7,13",1,Starter_houses,12500,1,Starter_houses</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
-        <f>CONCATENATE(B4,",",C4,",",D4,",",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4)</f>
-        <v>0,0,0,3,"1,7",1,Student_houses,10000,1,Student_houses</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,3,"1,7,13",1,Student_houses,10000,1,Student_houses</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
-        <f>CONCATENATE(B5,",",C5,",",D5,",",E5,",",F5,",",G5,",",H5,",",I5,",",J5,",",K5)</f>
-        <v>0,0,0,4,"1,13",1,Private_parking,16000,1,Private_parking</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,4,"1",1,Private_parking,16000,1,Private_parking</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
-        <f>CONCATENATE(B6,",",C6,",",D6,",",E6,",",F6,",",G6,",",H6,",",I6,",",J6,",",K6)</f>
-        <v>0,0,0,5,"1",1,Independent_elderly_houses,6500,1,Independent_elderly_houses</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,5,"1,13",1,Independent_elderly_houses,6500,1,Independent_elderly_houses</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
-        <f>CONCATENATE(B7,",",C7,",",D7,",",E7,",",F7,",",G7,",",H7,",",I7,",",J7,",",K7)</f>
-        <v>0,0,0,6,"1,9",1,Dependent_elderly_houses,6500,1,Dependent_elderly_houses</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,6,"1,9,13",1,Dependent_elderly_houses,6500,1,Dependent_elderly_houses</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
-        <f>CONCATENATE(B8,",",C8,",",D8,",",E8,",",F8,",",G8,",",H8,",",I8,",",J8,",",K8)</f>
+        <f t="shared" si="0"/>
         <v>0,0,0,7,"2,3",1,Shared_workspaces,2000,0,7,Shared_workspaces</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
-        <f>CONCATENATE(B9,",",C9,",",D9,",",E9,",",F9,",",G9,",",H9,",",I9,",",J9,",",K9)</f>
-        <v>0,0,0,8,"11,13,14",2,Supermarket,800,0,9,Supermarket</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,8,"11,14",2,Supermarket,800,0,9,Supermarket</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
-        <f>CONCATENATE(B10,",",C10,",",D10,",",E10,",",F10,",",G10,",",H10,",",I10,",",J10,",",K10)</f>
-        <v>0,0,0,9,"6,13,14",3,Care_center_elderly,1000,0,8,Care_center_elderly</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,9,"6,14",3,Care_center_elderly,1000,0,8,Care_center_elderly</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
-        <f>CONCATENATE(B11,",",C11,",",D11,",",E11,",",F11,",",G11,",",H11,",",I11,",",J11,",",K11)</f>
-        <v>0,0,0,10,"13",3,Cafe,200,0,7,Cafe</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,10,"14",3,Cafe,200,0,7,Cafe</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
-        <f>CONCATENATE(B12,",",C12,",",D12,",",E12,",",F12,",",G12,",",H12,",",I12,",",J12,",",K12)</f>
-        <v>0,0,0,11,"8,13",2,Loading_dock,200,0,9,Loading_dock</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,11,"8",2,Loading_dock,200,0,9,Loading_dock</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
-        <f>CONCATENATE(B13,",",C13,",",D13,",",E13,",",F13,",",G13,",",H13,",",I13,",",J13,",",K13)</f>
-        <v>0,0,0,12,"13,14",3,Gym,950,0,8,Gym</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,12,"14",3,Gym,950,0,8,Gym</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
-        <f>CONCATENATE(B14,",",C14,",",D14,",",E14,",",F14,",",G14,",",H14,",",I14,",",J14,",",K14)</f>
-        <v>0,0,0,13,"4,8,9,10,11,12",,Outside,,,Outside</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,13,"2,3,5,6",1,Atrium,2000,0,9,Area</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
-        <f>CONCATENATE(B15,",",C15,",",D15,",",E15,",",F15,",",G15,",",H15,",",I15,",",J15,",",K15)</f>
-        <v>0,0,0,14,"8,9,12",2,Public_parking,2000,0,9,Public_parking</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,14,"8,9,10,12",2,Public_parking,2000,0,9,Public_parking</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Spatial configuration table.xlsx
+++ b/documentation/Spatial configuration table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/serenst_tudelft_nl/Documents/spatial computing architecture/CDS-Project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="8_{697A1238-A541-4A1D-8A1B-4D07BCAF2535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A34D822-9F98-46FD-9C56-89E978C0B272}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="8_{697A1238-A541-4A1D-8A1B-4D07BCAF2535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0258AB4C-AA95-4F07-B114-4ED187D65480}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1395CAA-C2E5-497D-87AD-FD08627C7CC7}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>1. Housing entree</t>
-  </si>
-  <si>
     <t>2. Starter houses</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>"2,3"</t>
   </si>
   <si>
-    <t>Housing_entree</t>
-  </si>
-  <si>
     <t>Starter_houses</t>
   </si>
   <si>
@@ -192,6 +186,12 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>Housing_entrance</t>
+  </si>
+  <si>
+    <t>1. Housing entrance</t>
   </si>
 </sst>
 </file>
@@ -227,12 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -248,6 +247,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,7 +553,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +601,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -613,13 +616,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I2">
         <v>450</v>
@@ -628,12 +631,12 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -648,13 +651,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>12500</v>
@@ -663,12 +666,12 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -683,13 +686,13 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>10000</v>
@@ -698,12 +701,12 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -718,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>16000</v>
@@ -733,12 +736,12 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -753,13 +756,13 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6">
         <v>6500</v>
@@ -768,12 +771,12 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -788,13 +791,13 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <v>6500</v>
@@ -803,12 +806,12 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -823,13 +826,13 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -838,12 +841,12 @@
         <v>0.7</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -858,13 +861,13 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>800</v>
@@ -873,12 +876,12 @@
         <v>0.9</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -893,13 +896,13 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <v>1000</v>
@@ -908,12 +911,12 @@
         <v>0.8</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -928,13 +931,13 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>200</v>
@@ -943,12 +946,12 @@
         <v>0.7</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -963,13 +966,13 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>200</v>
@@ -978,12 +981,12 @@
         <v>0.9</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -998,13 +1001,13 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>950</v>
@@ -1013,47 +1016,47 @@
         <v>0.8</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>2000</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>0.9</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>51</v>
+      <c r="K14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1068,13 +1071,13 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1083,18 +1086,18 @@
         <v>0.9</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f t="shared" ref="B20:B33" si="0">CONCATENATE(B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2)</f>
-        <v>0,0,0,1,"2,3,4,5,6",1,Housing_entree,450,1,Housing_entree</v>
+        <v>0,0,0,1,"2,3,4,5,6",1,Housing_entrance,450,1,Housing_entrance</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">

--- a/documentation/Spatial configuration table.xlsx
+++ b/documentation/Spatial configuration table.xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documentation/Spatial configuration table.xlsx
+++ b/documentation/Spatial configuration table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/serenst_tudelft_nl/Documents/spatial computing architecture/CDS-Project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="8_{697A1238-A541-4A1D-8A1B-4D07BCAF2535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0258AB4C-AA95-4F07-B114-4ED187D65480}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="8_{697A1238-A541-4A1D-8A1B-4D07BCAF2535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA48FBC8-357D-4B1A-96C4-A20C9C947186}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1395CAA-C2E5-497D-87AD-FD08627C7CC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Point X</t>
   </si>
@@ -107,12 +107,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>"2,3,4,5,6"</t>
-  </si>
-  <si>
-    <t>"1,13"</t>
-  </si>
-  <si>
     <t>"1"</t>
   </si>
   <si>
@@ -170,12 +164,6 @@
     <t>13. Atrium</t>
   </si>
   <si>
-    <t>"1,7,13"</t>
-  </si>
-  <si>
-    <t>"1,9,13"</t>
-  </si>
-  <si>
     <t>"2,3,5,6"</t>
   </si>
   <si>
@@ -192,6 +180,27 @@
   </si>
   <si>
     <t>1. Housing entrance</t>
+  </si>
+  <si>
+    <t>15. Living room</t>
+  </si>
+  <si>
+    <t>"2,3,4,5,6,15"</t>
+  </si>
+  <si>
+    <t>"1,7,13,15"</t>
+  </si>
+  <si>
+    <t>"1,13,15"</t>
+  </si>
+  <si>
+    <t>"1,9,13,15"</t>
+  </si>
+  <si>
+    <t>Living_room</t>
+  </si>
+  <si>
+    <t>"1,2,3,5,6"</t>
   </si>
 </sst>
 </file>
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB04150-FBEB-42D8-B024-6EAA7FC039FE}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +610,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -616,13 +625,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <v>450</v>
@@ -631,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -651,13 +660,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>12500</v>
@@ -666,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -686,13 +695,13 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>10000</v>
@@ -701,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -721,13 +730,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>16000</v>
@@ -736,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -756,13 +765,13 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>6500</v>
@@ -771,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -791,13 +800,13 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7">
         <v>6500</v>
@@ -806,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -826,13 +835,13 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8">
         <v>2000</v>
@@ -841,7 +850,7 @@
         <v>0.7</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -861,13 +870,13 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9">
         <v>800</v>
@@ -876,7 +885,7 @@
         <v>0.9</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -896,13 +905,13 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>1000</v>
@@ -911,7 +920,7 @@
         <v>0.8</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -931,22 +940,22 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J11">
         <v>0.7</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -966,13 +975,13 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>200</v>
@@ -981,7 +990,7 @@
         <v>0.9</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1001,13 +1010,13 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>950</v>
@@ -1016,12 +1025,12 @@
         <v>0.8</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1036,13 +1045,13 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>2000</v>
@@ -1051,7 +1060,7 @@
         <v>0.9</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1071,13 +1080,13 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15">
         <v>2000</v>
@@ -1086,7 +1095,42 @@
         <v>0.9</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16">
+        <v>350</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -1097,19 +1141,19 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f t="shared" ref="B20:B33" si="0">CONCATENATE(B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2)</f>
-        <v>0,0,0,1,"2,3,4,5,6",1,Housing_entrance,450,1,Housing_entrance</v>
+        <v>0,0,0,1,"2,3,4,5,6,15",1,Housing_entrance,450,1,Housing_entrance</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,2,"1,7,13",1,Starter_houses,12500,1,Starter_houses</v>
+        <v>0,0,0,2,"1,7,13,15",1,Starter_houses,12500,1,Starter_houses</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,3,"1,7,13",1,Student_houses,10000,1,Student_houses</v>
+        <v>0,0,0,3,"1,7,13,15",1,Student_houses,10000,1,Student_houses</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -1121,13 +1165,13 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,5,"1,13",1,Independent_elderly_houses,6500,1,Independent_elderly_houses</v>
+        <v>0,0,0,5,"1,13,15",1,Independent_elderly_houses,6500,1,Independent_elderly_houses</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,6,"1,9,13",1,Dependent_elderly_houses,6500,1,Dependent_elderly_houses</v>
+        <v>0,0,0,6,"1,9,13,15",1,Dependent_elderly_houses,6500,1,Dependent_elderly_houses</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -1151,7 +1195,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,10,"14",3,Cafe,200,0,7,Cafe</v>
+        <v>0,0,0,10,"14",3,Cafe,300,0,7,Cafe</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
@@ -1178,6 +1222,12 @@
         <v>0,0,0,14,"8,9,10,12",2,Public_parking,2000,0,9,Public_parking</v>
       </c>
     </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <f>CONCATENATE(B16,",",C16,",",D16,",",E16,",",F16,",",G16,",",H16,",",I16,",",J16,",",K16)</f>
+        <v>0,0,0,15,"1,2,3,5,6",1,Living_room,350,0,8,Living_room</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
